--- a/L02_L03_FA23/L02 Real Flower Data.xlsx
+++ b/L02_L03_FA23/L02 Real Flower Data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="116">
   <si>
     <t>Flower</t>
   </si>
@@ -92,6 +92,30 @@
     <t>St. John's Wort</t>
   </si>
   <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Morning Glory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunflower </t>
+  </si>
+  <si>
+    <t>White rectangula</t>
+  </si>
+  <si>
+    <t>White rectangular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white rectangular </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white rectangular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange with white streaks </t>
+  </si>
+  <si>
     <t>Squash blossom</t>
   </si>
   <si>
@@ -99,9 +123,6 @@
   </si>
   <si>
     <t>Morning glory</t>
-  </si>
-  <si>
-    <t>Morning Glory</t>
   </si>
   <si>
     <t xml:space="preserve"> inspecting</t>
@@ -171,9 +192,6 @@
   </si>
   <si>
     <t>&gt;15 (ants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunflower </t>
   </si>
   <si>
     <t>Basil</t>
@@ -1574,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -1595,7 +1613,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>0.0</v>
@@ -1616,7 +1634,7 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -1645,10 +1663,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6">
         <v>0.0</v>
@@ -1669,7 +1687,7 @@
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6">
         <v>0.0</v>
@@ -1690,7 +1708,7 @@
     <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6">
         <v>1.0</v>
@@ -1719,10 +1737,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
@@ -1737,13 +1755,13 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8">
         <v>1.0</v>
@@ -1764,7 +1782,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8">
         <v>1.0</v>
@@ -1793,10 +1811,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10">
         <v>8.0</v>
@@ -1817,7 +1835,7 @@
     <row r="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10">
         <v>2.0</v>
@@ -1838,7 +1856,7 @@
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10">
         <v>7.0</v>
@@ -1867,10 +1885,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12">
         <v>1.0</v>
@@ -1891,7 +1909,7 @@
     <row r="19">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" s="12">
         <v>0.0</v>
@@ -1912,7 +1930,7 @@
     <row r="20">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12">
         <v>3.0</v>
@@ -1982,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>8.0</v>
@@ -2005,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>5.0</v>
@@ -2028,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3">
         <v>2.0</v>
@@ -2051,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>3.0</v>
@@ -2074,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6">
         <v>10.0</v>
@@ -2097,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6">
         <v>9.0</v>
@@ -2120,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6">
         <v>6.0</v>
@@ -2143,7 +2161,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>7.0</v>
@@ -2163,10 +2181,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
@@ -2186,10 +2204,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
@@ -2209,10 +2227,10 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
@@ -2232,10 +2250,10 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -2255,10 +2273,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10">
         <v>3.0</v>
@@ -2278,10 +2296,10 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10">
         <v>0.0</v>
@@ -2301,10 +2319,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10">
         <v>0.0</v>
@@ -2324,10 +2342,10 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10">
         <v>0.0</v>
@@ -2347,10 +2365,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
         <v>2.0</v>
@@ -2370,10 +2388,10 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12">
         <v>2.0</v>
@@ -2393,10 +2411,10 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" s="12">
         <v>1.0</v>
@@ -2416,10 +2434,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12">
         <v>2.0</v>
@@ -2529,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>0.0</v>
@@ -2552,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>0.0</v>
@@ -2572,7 +2590,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -2595,7 +2613,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -2618,10 +2636,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>2.0</v>
@@ -2641,10 +2659,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6">
         <v>0.0</v>
@@ -2713,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>2.0</v>
@@ -2736,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -2756,7 +2774,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>10</v>
@@ -2779,7 +2797,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -2802,10 +2820,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10">
         <v>1.0</v>
@@ -2825,10 +2843,10 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10">
         <v>0.0</v>
@@ -2848,7 +2866,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -2871,7 +2889,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -2894,10 +2912,10 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C20" s="12">
         <v>0.0</v>
@@ -2917,10 +2935,10 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21" s="12">
         <v>0.0</v>
@@ -2978,7 +2996,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -3198,7 +3216,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -3221,7 +3239,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -3244,7 +3262,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -3267,10 +3285,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3">
         <v>6.0</v>
@@ -3290,7 +3308,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -3313,7 +3331,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3334,7 +3352,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -3357,10 +3375,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6">
         <v>0.0</v>
@@ -3380,7 +3398,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -3403,7 +3421,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -3426,7 +3444,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
@@ -3449,10 +3467,10 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -3544,7 +3562,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10">
         <v>5.0</v>
@@ -3564,7 +3582,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -3587,7 +3605,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>10</v>
@@ -3610,7 +3628,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>9</v>
@@ -3633,10 +3651,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="12">
         <v>0.0</v>
@@ -3692,7 +3710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3738,10 +3756,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3">
         <v>3.0</v>
@@ -3761,7 +3779,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -3784,7 +3802,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -3807,7 +3825,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3853,7 +3871,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -3876,7 +3894,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -3899,7 +3917,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -3922,7 +3940,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -4060,7 +4078,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -4083,7 +4101,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -4106,7 +4124,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -4129,7 +4147,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -4188,7 +4206,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -4211,7 +4229,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -4234,7 +4252,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4257,7 +4275,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -4280,7 +4298,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -4303,7 +4321,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -4326,7 +4344,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4349,7 +4367,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -4372,7 +4390,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -4395,7 +4413,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -4418,7 +4436,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -4441,7 +4459,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -4464,7 +4482,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -4487,7 +4505,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -4510,7 +4528,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -4533,7 +4551,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -4556,7 +4574,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -4579,7 +4597,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -4602,7 +4620,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -4625,7 +4643,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -4705,7 +4723,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>8</v>
@@ -4747,7 +4765,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>9</v>
@@ -4789,7 +4807,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>10</v>
@@ -4831,7 +4849,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>11</v>
@@ -4873,7 +4891,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>8</v>
@@ -4915,7 +4933,7 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>9</v>
@@ -4957,7 +4975,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>10</v>
@@ -4999,7 +5017,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>11</v>
@@ -5041,7 +5059,7 @@
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>8</v>
@@ -5083,7 +5101,7 @@
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>9</v>
@@ -5125,7 +5143,7 @@
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>10</v>
@@ -5167,7 +5185,7 @@
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>11</v>
@@ -5209,7 +5227,7 @@
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>8</v>
@@ -5251,7 +5269,7 @@
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>9</v>
@@ -5293,7 +5311,7 @@
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>10</v>
@@ -5335,7 +5353,7 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>11</v>
@@ -5377,7 +5395,7 @@
     </row>
     <row r="18">
       <c r="A18" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>8</v>
@@ -5419,7 +5437,7 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -5461,7 +5479,7 @@
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>10</v>
@@ -5503,7 +5521,7 @@
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -32995,10 +33013,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>6.0</v>
@@ -33012,10 +33030,10 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -33027,10 +33045,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -33040,10 +33058,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -33055,10 +33073,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -33070,10 +33088,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -33083,10 +33101,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -33096,10 +33114,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -33111,10 +33129,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>2.0</v>
@@ -33128,10 +33146,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>1.0</v>
@@ -33145,10 +33163,10 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -33158,10 +33176,10 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>1.0</v>
@@ -33173,10 +33191,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10">
         <v>1.0</v>
@@ -33192,10 +33210,10 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -33207,10 +33225,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -33220,10 +33238,10 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10">
         <v>1.0</v>
@@ -33240,7 +33258,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
         <v>5.0</v>
@@ -33257,7 +33275,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12">
         <v>1.0</v>
@@ -33272,7 +33290,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -33285,7 +33303,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12">
         <v>4.0</v>
@@ -33335,7 +33353,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -33358,7 +33376,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -33381,7 +33399,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -33404,7 +33422,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -33427,7 +33445,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -33448,7 +33466,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -33471,7 +33489,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -33494,7 +33512,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -33517,7 +33535,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -33540,7 +33558,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -33563,7 +33581,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -33586,7 +33604,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -33609,7 +33627,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -33632,7 +33650,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -33655,7 +33673,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -33678,7 +33696,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -33701,7 +33719,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -33724,7 +33742,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
@@ -33747,7 +33765,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -33770,7 +33788,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -34092,7 +34110,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -34113,7 +34131,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -34134,7 +34152,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -34155,7 +34173,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -34176,7 +34194,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -34197,7 +34215,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -34218,7 +34236,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -34239,7 +34257,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -34260,7 +34278,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -34281,7 +34299,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -34302,7 +34320,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -34323,7 +34341,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -34344,7 +34362,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -34365,7 +34383,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -34386,7 +34404,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -34407,7 +34425,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -34428,7 +34446,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -34449,7 +34467,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -34470,7 +34488,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -34491,7 +34509,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -34576,7 +34594,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>10.0</v>
@@ -34642,7 +34660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -34665,10 +34683,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6">
         <v>5.0</v>
@@ -34688,7 +34706,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -34711,7 +34729,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -34760,7 +34778,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8">
         <v>6.0</v>
@@ -34826,7 +34844,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -34849,10 +34867,10 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10">
         <v>13.0</v>
@@ -34872,7 +34890,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -34895,7 +34913,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -34918,7 +34936,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -34941,10 +34959,10 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12">
         <v>4.0</v>
@@ -34964,7 +34982,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -34987,7 +35005,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -35048,7 +35066,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -35071,7 +35089,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -35094,7 +35112,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -35117,7 +35135,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -35140,7 +35158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>8</v>
@@ -35163,7 +35181,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -35186,7 +35204,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -35209,7 +35227,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -35232,7 +35250,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>8</v>
@@ -35255,7 +35273,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -35278,7 +35296,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -35301,7 +35319,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -35324,7 +35342,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>8</v>
@@ -35347,7 +35365,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -35370,7 +35388,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -35393,7 +35411,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -35416,7 +35434,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>8</v>
@@ -35439,7 +35457,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -35462,7 +35480,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -35485,7 +35503,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>11</v>
@@ -35948,7 +35966,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -35971,7 +35989,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -35994,7 +36012,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -36017,7 +36035,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -36040,7 +36058,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -36063,7 +36081,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -36086,7 +36104,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -36109,7 +36127,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -36132,7 +36150,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -36155,7 +36173,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -36178,7 +36196,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -36201,7 +36219,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -36262,7 +36280,7 @@
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>8</v>
@@ -36285,7 +36303,7 @@
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>9</v>
@@ -36308,7 +36326,7 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
@@ -36331,7 +36349,7 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>11</v>
@@ -36354,7 +36372,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -36377,7 +36395,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -36400,7 +36418,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -36423,7 +36441,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -36538,7 +36556,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -36561,7 +36579,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -36584,7 +36602,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -36607,7 +36625,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -36630,7 +36648,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -36653,7 +36671,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -36676,7 +36694,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -36699,7 +36717,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -36760,10 +36778,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>16.0</v>
@@ -36783,7 +36801,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -36806,7 +36824,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -36829,7 +36847,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -36852,10 +36870,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6">
         <v>8.0</v>
@@ -36875,7 +36893,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -36898,7 +36916,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -36921,7 +36939,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -36944,10 +36962,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8">
         <v>7.0</v>
@@ -36967,7 +36985,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -36990,7 +37008,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -37013,7 +37031,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -37036,10 +37054,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10">
         <v>13.0</v>
@@ -37059,7 +37077,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -37082,7 +37100,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -37105,7 +37123,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -37128,10 +37146,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12">
         <v>0.0</v>
@@ -37151,7 +37169,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -37174,7 +37192,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -37197,7 +37215,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>11</v>
@@ -37258,10 +37276,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -37281,7 +37299,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -37304,7 +37322,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -37327,7 +37345,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -37350,10 +37368,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6">
         <v>0.0</v>
@@ -37373,7 +37391,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -37396,7 +37414,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -37419,7 +37437,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -37442,10 +37460,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8">
         <v>1.0</v>
@@ -37465,7 +37483,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -37488,7 +37506,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -37511,7 +37529,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -37534,10 +37552,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10">
         <v>0.0</v>
@@ -37557,7 +37575,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -37580,7 +37598,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -37603,7 +37621,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -37626,10 +37644,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12">
         <v>1.0</v>
@@ -37649,7 +37667,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
@@ -37672,7 +37690,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -37695,7 +37713,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -37759,7 +37777,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -37782,7 +37800,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -37805,7 +37823,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -37828,7 +37846,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -37851,7 +37869,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -37874,7 +37892,7 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -37897,7 +37915,7 @@
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -37920,7 +37938,7 @@
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -37943,7 +37961,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -37966,7 +37984,7 @@
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -37989,7 +38007,7 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -38012,7 +38030,7 @@
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -38035,7 +38053,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -38058,7 +38076,7 @@
     </row>
     <row r="15">
       <c r="A15" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -38081,7 +38099,7 @@
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -38104,7 +38122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -38281,7 +38299,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3">
         <v>3.0</v>
@@ -38302,7 +38320,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3">
         <v>2.0</v>
@@ -38341,7 +38359,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -38362,10 +38380,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6">
         <v>2.0</v>
@@ -38383,7 +38401,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -38404,7 +38422,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -38415,7 +38433,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
@@ -38436,10 +38454,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C11" s="8">
         <v>4.0</v>
@@ -38457,10 +38475,10 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C12" s="8">
         <v>1.0</v>
@@ -38478,7 +38496,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -38489,10 +38507,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10">
         <v>3.0</v>
@@ -38510,7 +38528,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -38531,7 +38549,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -38542,7 +38560,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -38553,7 +38571,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>9</v>
@@ -38574,10 +38592,10 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="12">
         <v>5.0</v>
@@ -38595,7 +38613,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -38606,7 +38624,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -38655,16 +38673,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
@@ -38673,64 +38691,64 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="3">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="3">
         <v>0.0</v>
@@ -38742,73 +38760,73 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="6">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="6">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
         <v>0.0</v>
@@ -38816,16 +38834,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="6">
         <v>0.0</v>
@@ -38839,53 +38857,53 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="8">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="8">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="8">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -38894,122 +38912,122 @@
         <v>1.0</v>
       </c>
       <c r="D12" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="8">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="8">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="8">
         <v>0.0</v>
       </c>
       <c r="G13" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="10">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="10">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="10">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="10">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" s="10">
         <v>0.0</v>
@@ -39018,81 +39036,81 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="12">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="12">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="12">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" s="12">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="12">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="12">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="12">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="12">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="12">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="12">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="12">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="12">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -39107,10 +39125,10 @@
         <v>0.0</v>
       </c>
       <c r="F21" s="12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" s="12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -39153,10 +39171,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -39166,10 +39184,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -39179,10 +39197,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -39192,10 +39210,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -39205,10 +39223,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -39218,10 +39236,10 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -39231,10 +39249,10 @@
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -39244,10 +39262,10 @@
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -39257,10 +39275,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -39270,10 +39288,10 @@
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -39283,10 +39301,10 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -39296,10 +39314,10 @@
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -39312,7 +39330,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -39325,7 +39343,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -39338,7 +39356,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -39351,7 +39369,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -39361,10 +39379,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -39374,10 +39392,10 @@
     </row>
     <row r="19">
       <c r="A19" s="40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -39387,10 +39405,10 @@
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -39400,10 +39418,10 @@
     </row>
     <row r="21">
       <c r="A21" s="40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -39543,7 +39561,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -39566,7 +39584,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -39589,7 +39607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -39612,7 +39630,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -39635,7 +39653,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -39658,7 +39676,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -39681,7 +39699,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -39704,7 +39722,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -39727,10 +39745,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10">
         <v>2.0</v>
@@ -39750,7 +39768,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -39773,7 +39791,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -39796,7 +39814,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -39819,10 +39837,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12">
         <v>0.0</v>
@@ -39842,7 +39860,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -39865,10 +39883,10 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C20" s="12">
         <v>0.0</v>
@@ -39888,7 +39906,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -39949,7 +39967,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -39972,7 +39990,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -39995,7 +40013,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -40018,7 +40036,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -40041,7 +40059,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>9</v>
@@ -40064,7 +40082,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -40087,7 +40105,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -40110,7 +40128,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -40133,7 +40151,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>9</v>
@@ -40156,7 +40174,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -40179,7 +40197,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -40202,7 +40220,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -40225,7 +40243,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>9</v>
@@ -40248,7 +40266,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
@@ -40271,7 +40289,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -40294,7 +40312,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>8</v>
@@ -40317,7 +40335,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>9</v>
@@ -40340,7 +40358,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>10</v>
@@ -40363,7 +40381,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>11</v>
@@ -40386,7 +40404,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>8</v>
@@ -40696,7 +40714,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -40719,7 +40737,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -40742,7 +40760,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -40765,7 +40783,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -40788,7 +40806,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -40811,7 +40829,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -40834,7 +40852,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -40857,7 +40875,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -40880,7 +40898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -40903,7 +40921,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -40926,7 +40944,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -40949,7 +40967,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -41078,7 +41096,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -41192,7 +41212,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -41215,7 +41235,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -41238,7 +41258,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -41261,7 +41281,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -41284,7 +41304,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -41307,7 +41327,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -41330,7 +41350,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -41353,7 +41373,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -41376,7 +41396,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -41399,7 +41419,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -41422,7 +41442,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -41445,7 +41465,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -41598,7 +41618,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -41621,7 +41641,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -41644,10 +41664,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>3.0</v>
@@ -41667,10 +41687,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>4.0</v>
@@ -41693,7 +41713,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6">
         <v>14.0</v>
@@ -41782,7 +41802,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -41805,10 +41825,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8">
         <v>9.0</v>
@@ -41828,7 +41848,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -41851,7 +41871,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -41966,7 +41986,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -41989,7 +42009,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -42012,7 +42032,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -42035,7 +42055,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
@@ -42099,7 +42119,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -42122,7 +42142,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3">
         <v>1.0</v>
@@ -42145,7 +42165,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -42168,7 +42188,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>1.0</v>
@@ -42188,10 +42208,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6">
         <v>1.0</v>
@@ -42211,10 +42231,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>1.0</v>
@@ -42234,10 +42254,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>1.0</v>
@@ -42257,10 +42277,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>0.0</v>
@@ -42283,7 +42303,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>25.0</v>
@@ -42306,7 +42326,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8">
         <v>15.0</v>
@@ -42329,7 +42349,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8">
         <v>12.0</v>
@@ -42352,7 +42372,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>11.0</v>
@@ -42372,10 +42392,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10">
         <v>1.0</v>
@@ -42395,10 +42415,10 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10">
         <v>1.0</v>
@@ -42418,10 +42438,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10">
         <v>1.0</v>
@@ -42441,10 +42461,10 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10">
         <v>0.0</v>
@@ -42464,10 +42484,10 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
         <v>8.0</v>
@@ -42487,10 +42507,10 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12">
         <v>5.0</v>
@@ -42510,10 +42530,10 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12">
         <v>4.0</v>
@@ -42533,10 +42553,10 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12">
         <v>4.0</v>
@@ -42594,7 +42614,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -42617,7 +42637,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -42640,7 +42660,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -42663,7 +42683,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -42686,7 +42706,7 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -42709,7 +42729,7 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>9</v>
@@ -42732,7 +42752,7 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>10</v>
@@ -42755,7 +42775,7 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>11</v>
@@ -42778,7 +42798,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>8</v>
@@ -42801,7 +42821,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -42824,7 +42844,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
@@ -42847,7 +42867,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -42870,7 +42890,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -42893,7 +42913,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -42916,7 +42936,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
@@ -42939,7 +42959,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -43095,7 +43115,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <v>5.0</v>
@@ -43118,7 +43138,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3">
         <v>5.0</v>
@@ -43141,7 +43161,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>3.0</v>
@@ -43161,10 +43181,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3">
         <v>0.0</v>
@@ -43184,10 +43204,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6">
         <v>0.0</v>
@@ -43207,10 +43227,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6">
         <v>0.0</v>
@@ -43230,10 +43250,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6">
         <v>1.0</v>
@@ -43253,10 +43273,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6">
         <v>1.0</v>
@@ -43276,10 +43296,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8">
         <v>1.0</v>
@@ -43299,10 +43319,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
@@ -43322,10 +43342,10 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
@@ -43345,10 +43365,10 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -43368,10 +43388,10 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
@@ -43391,10 +43411,10 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
@@ -43414,10 +43434,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
